--- a/Semestres/Ciberseguridad/PendriveAttack/sdk/Sudoku.xlsx
+++ b/Semestres/Ciberseguridad/PendriveAttack/sdk/Sudoku.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Downloads\SEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Ciberseguridad\PendriveAttack\sdk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239FF3C3-B5AC-49A8-B0E1-1A355A6CD8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D330A5-4AAE-4140-A25A-3F57711D1131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{91D4CC1C-F346-4356-9F06-E191741F4A45}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Game" sheetId="1" r:id="rId1"/>
+    <sheet name="Solution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,16 +34,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Sudoku</t>
   </si>
+  <si>
+    <t>How to play?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,12 +55,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF3399"/>
+      <i/>
+      <sz val="14"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,9 +90,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,6 +119,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7951</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>737664</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787655B2-5FE2-BF69-1419-8AB02901C341}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="834887" y="715617"/>
+          <a:ext cx="5937817" cy="2397354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,21 +467,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335FA67-0333-451B-BE6C-6946A39E3829}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I4" sqref="I4:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="26.3" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:2" ht="29.45" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9F97D4-0D38-467F-93F8-F947F778490C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Semestres/Ciberseguridad/PendriveAttack/sdk/Sudoku.xlsx
+++ b/Semestres/Ciberseguridad/PendriveAttack/sdk/Sudoku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scago\Documents\GitHub\IA_School\Semestres\Ciberseguridad\PendriveAttack\sdk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D330A5-4AAE-4140-A25A-3F57711D1131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2326BB-0092-4255-B3BD-241F9B500465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{91D4CC1C-F346-4356-9F06-E191741F4A45}"/>
   </bookViews>
@@ -36,17 +36,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Sudoku</t>
+    <t>How to play?</t>
   </si>
   <si>
-    <t>How to play?</t>
+    <t>Sudoku Final Project</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +69,35 @@
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,17 +105,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,8 +173,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>737664</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123280</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>75572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -163,6 +203,70 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>151075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>683813</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Sudoku - Su Doku: Técnicas de resolución de un SuDoKu ...">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0A3D97-7A51-4497-BB44-1C5B049BFE33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="48915"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="826936" y="341906"/>
+          <a:ext cx="3991555" cy="3965466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -467,27 +571,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335FA67-0333-451B-BE6C-6946A39E3829}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" customWidth="1"/>
+    <col min="16" max="16" width="5.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="29.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="29.45" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="18.2" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="2:17" ht="26.3" x14ac:dyDescent="0.3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4">
         <v>1</v>
       </c>
-    </row>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <v>4</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="2:17" ht="26.3" x14ac:dyDescent="0.3">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>8</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3">
+        <v>6</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" ht="26.3" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="26.3" x14ac:dyDescent="0.3">
+      <c r="I7" s="4">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>7</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="26.3" x14ac:dyDescent="0.3">
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4">
+        <v>3</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="2:17" ht="26.3" x14ac:dyDescent="0.3">
+      <c r="I9" s="4">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3">
+        <v>9</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="26.3" x14ac:dyDescent="0.3">
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="26.3" x14ac:dyDescent="0.3">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>6</v>
+      </c>
+      <c r="O11" s="3">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="2:17" ht="27.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="4">
+        <v>5</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="2:17" ht="26.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:17" ht="26.3" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:17" ht="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:17" ht="29.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="26.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="27.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="30.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="26.3" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -499,10 +779,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E9F97D4-0D38-467F-93F8-F947F778490C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>